--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Lrp5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H2">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I2">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J2">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N2">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P2">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q2">
-        <v>524.3910781009838</v>
+        <v>652.6703813815732</v>
       </c>
       <c r="R2">
-        <v>4719.519702908854</v>
+        <v>5874.033432434159</v>
       </c>
       <c r="S2">
-        <v>0.002839754195483739</v>
+        <v>0.003250505041036037</v>
       </c>
       <c r="T2">
-        <v>0.00283975419548374</v>
+        <v>0.003250505041036039</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H3">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I3">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J3">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>37.180959</v>
       </c>
       <c r="O3">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P3">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q3">
-        <v>363.3984349618843</v>
+        <v>439.0471859528743</v>
       </c>
       <c r="R3">
-        <v>3270.585914656959</v>
+        <v>3951.424673575869</v>
       </c>
       <c r="S3">
-        <v>0.001967924843520139</v>
+        <v>0.00218659392536178</v>
       </c>
       <c r="T3">
-        <v>0.00196792484352014</v>
+        <v>0.00218659392536178</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H4">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I4">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J4">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N4">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P4">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q4">
-        <v>128.9323059568505</v>
+        <v>381.3055035240391</v>
       </c>
       <c r="R4">
-        <v>1160.390753611655</v>
+        <v>3431.749531716352</v>
       </c>
       <c r="S4">
-        <v>0.0006982118347632362</v>
+        <v>0.001899022074137998</v>
       </c>
       <c r="T4">
-        <v>0.0006982118347632364</v>
+        <v>0.001899022074137998</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H5">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I5">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J5">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N5">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P5">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q5">
-        <v>165.4613609965677</v>
+        <v>199.0999765054393</v>
       </c>
       <c r="R5">
-        <v>1489.15224896911</v>
+        <v>1791.899788548954</v>
       </c>
       <c r="S5">
-        <v>0.0008960289633111729</v>
+        <v>0.0009915808894700345</v>
       </c>
       <c r="T5">
-        <v>0.000896028963311173</v>
+        <v>0.0009915808894700347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J6">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N6">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O6">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P6">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q6">
-        <v>814.1715613749009</v>
+        <v>838.73814315896</v>
       </c>
       <c r="R6">
-        <v>7327.544052374106</v>
+        <v>7548.64328843064</v>
       </c>
       <c r="S6">
-        <v>0.004409013051157752</v>
+        <v>0.004177181377031884</v>
       </c>
       <c r="T6">
-        <v>0.004409013051157751</v>
+        <v>0.004177181377031885</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J7">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>37.180959</v>
       </c>
       <c r="O7">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P7">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q7">
         <v>564.213777750689</v>
@@ -883,10 +883,10 @@
         <v>5077.923999756201</v>
       </c>
       <c r="S7">
-        <v>0.003055407518220023</v>
+        <v>0.002809963162290943</v>
       </c>
       <c r="T7">
-        <v>0.003055407518220023</v>
+        <v>0.002809963162290943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J8">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N8">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O8">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P8">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q8">
-        <v>200.1807834578383</v>
+        <v>490.0106993135787</v>
       </c>
       <c r="R8">
-        <v>1801.627051120545</v>
+        <v>4410.096293822208</v>
       </c>
       <c r="S8">
-        <v>0.001084046322333019</v>
+        <v>0.00244040834963091</v>
       </c>
       <c r="T8">
-        <v>0.001084046322333019</v>
+        <v>0.00244040834963091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J9">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N9">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O9">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P9">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q9">
-        <v>256.8959317874767</v>
+        <v>255.860767335074</v>
       </c>
       <c r="R9">
-        <v>2312.06338608729</v>
+        <v>2302.746906015666</v>
       </c>
       <c r="S9">
-        <v>0.0013911779405898</v>
+        <v>0.001274267590120319</v>
       </c>
       <c r="T9">
-        <v>0.001391177940589799</v>
+        <v>0.001274267590120319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H10">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N10">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O10">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P10">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q10">
-        <v>1198.666983747784</v>
+        <v>940.8772788443201</v>
       </c>
       <c r="R10">
-        <v>10788.00285373005</v>
+        <v>8467.89550959888</v>
       </c>
       <c r="S10">
-        <v>0.00649118518265504</v>
+        <v>0.004685866595333871</v>
       </c>
       <c r="T10">
-        <v>0.006491185182655041</v>
+        <v>0.004685866595333873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H11">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>37.180959</v>
       </c>
       <c r="O11">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P11">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q11">
-        <v>830.6657457100047</v>
+        <v>632.9221202426381</v>
       </c>
       <c r="R11">
-        <v>7475.991711390042</v>
+        <v>5696.299082183743</v>
       </c>
       <c r="S11">
-        <v>0.004498334611197095</v>
+        <v>0.003152152451099409</v>
       </c>
       <c r="T11">
-        <v>0.004498334611197096</v>
+        <v>0.003152152451099409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H12">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N12">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O12">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P12">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q12">
-        <v>294.7168720883211</v>
+        <v>549.6828028332375</v>
       </c>
       <c r="R12">
-        <v>2652.45184879489</v>
+        <v>4947.145225499136</v>
       </c>
       <c r="S12">
-        <v>0.001595991062669234</v>
+        <v>0.00273759430878121</v>
       </c>
       <c r="T12">
-        <v>0.001595991062669234</v>
+        <v>0.00273759430878121</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H13">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N13">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O13">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P13">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q13">
-        <v>378.2159514055755</v>
+        <v>287.018760857308</v>
       </c>
       <c r="R13">
-        <v>3403.94356265018</v>
+        <v>2583.168847715772</v>
       </c>
       <c r="S13">
-        <v>0.002048166682568969</v>
+        <v>0.001429444258009249</v>
       </c>
       <c r="T13">
-        <v>0.002048166682568969</v>
+        <v>0.001429444258009249</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H14">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I14">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J14">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.88428466666667</v>
+        <v>18.42392</v>
       </c>
       <c r="N14">
-        <v>53.652854</v>
+        <v>55.27176</v>
       </c>
       <c r="O14">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="P14">
-        <v>0.4435785307770658</v>
+        <v>0.3903243738016154</v>
       </c>
       <c r="Q14">
-        <v>79374.30495486404</v>
+        <v>75941.12223490149</v>
       </c>
       <c r="R14">
-        <v>714368.7445937763</v>
+        <v>683470.1001141134</v>
       </c>
       <c r="S14">
-        <v>0.4298385783477693</v>
+        <v>0.3782108207882136</v>
       </c>
       <c r="T14">
-        <v>0.4298385783477693</v>
+        <v>0.3782108207882137</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H15">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I15">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J15">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>37.180959</v>
       </c>
       <c r="O15">
-        <v>0.3073960458115111</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="P15">
-        <v>0.3073960458115112</v>
+        <v>0.2625687066780312</v>
       </c>
       <c r="Q15">
-        <v>55005.6997560707</v>
+        <v>51085.10661194543</v>
       </c>
       <c r="R15">
-        <v>495051.2978046362</v>
+        <v>459765.9595075088</v>
       </c>
       <c r="S15">
-        <v>0.2978743788385739</v>
+        <v>0.254419997139279</v>
       </c>
       <c r="T15">
-        <v>0.2978743788385739</v>
+        <v>0.254419997139279</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H16">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I16">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J16">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.397218333333333</v>
+        <v>10.76369066666667</v>
       </c>
       <c r="N16">
-        <v>13.191655</v>
+        <v>32.291072</v>
       </c>
       <c r="O16">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="P16">
-        <v>0.1090628830931889</v>
+        <v>0.2280367489253622</v>
       </c>
       <c r="Q16">
-        <v>19515.80146751106</v>
+        <v>44366.6032318856</v>
       </c>
       <c r="R16">
-        <v>175642.2132075996</v>
+        <v>399299.4290869703</v>
       </c>
       <c r="S16">
-        <v>0.1056846338734234</v>
+        <v>0.2209597241928121</v>
       </c>
       <c r="T16">
-        <v>0.1056846338734234</v>
+        <v>0.2209597241928121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H17">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I17">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J17">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.643036666666666</v>
+        <v>5.620297999999999</v>
       </c>
       <c r="N17">
-        <v>16.92911</v>
+        <v>16.860894</v>
       </c>
       <c r="O17">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="P17">
-        <v>0.1399625403182342</v>
+        <v>0.1190701705949913</v>
       </c>
       <c r="Q17">
-        <v>25045.01139407119</v>
+        <v>23166.17405061314</v>
       </c>
       <c r="R17">
-        <v>225405.1025466407</v>
+        <v>208495.5664555182</v>
       </c>
       <c r="S17">
-        <v>0.1356271667317642</v>
+        <v>0.1153748778573917</v>
       </c>
       <c r="T17">
-        <v>0.1356271667317642</v>
+        <v>0.1153748778573917</v>
       </c>
     </row>
   </sheetData>
